--- a/Code/Results/Cases/Case_1_235/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_235/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.246581840241836</v>
+        <v>7.818245253082684</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.726846650845135</v>
+        <v>5.031896916800619</v>
       </c>
       <c r="E2">
-        <v>13.0956071272172</v>
+        <v>12.31065508756321</v>
       </c>
       <c r="F2">
-        <v>26.61566906366894</v>
+        <v>27.98736913050699</v>
       </c>
       <c r="G2">
-        <v>38.21580125179301</v>
+        <v>35.73474102701444</v>
       </c>
       <c r="H2">
-        <v>11.62002560639437</v>
+        <v>15.5529244094609</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.06526578865823</v>
+        <v>9.984160097481048</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.63260976881145</v>
+        <v>13.83689475540853</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.888031512192362</v>
+        <v>7.74815202461363</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.769130935424574</v>
+        <v>5.036156397470084</v>
       </c>
       <c r="E3">
-        <v>12.38558395937189</v>
+        <v>12.16266361848166</v>
       </c>
       <c r="F3">
-        <v>25.54151053174852</v>
+        <v>27.81766522492601</v>
       </c>
       <c r="G3">
-        <v>36.46871863910188</v>
+        <v>35.37028824802812</v>
       </c>
       <c r="H3">
-        <v>11.41611755371399</v>
+        <v>15.55865381647555</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.13739593445727</v>
+        <v>9.508441533254315</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.54942308787782</v>
+        <v>13.61121181490203</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.662163959639877</v>
+        <v>7.706697473712548</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.795014037974367</v>
+        <v>5.038837792927202</v>
       </c>
       <c r="E4">
-        <v>11.94329548019038</v>
+        <v>12.07503423584158</v>
       </c>
       <c r="F4">
-        <v>24.88725904347976</v>
+        <v>27.72161652226385</v>
       </c>
       <c r="G4">
-        <v>35.39846175060035</v>
+        <v>35.15747961846768</v>
       </c>
       <c r="H4">
-        <v>11.29955858881815</v>
+        <v>15.56559795591642</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.54031910043908</v>
+        <v>9.201629725911936</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.85120963344646</v>
+        <v>13.47466976403396</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.568806495302463</v>
+        <v>7.690220682354167</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.805554646865191</v>
+        <v>5.039947387510532</v>
       </c>
       <c r="E5">
-        <v>11.76164410406318</v>
+        <v>12.04017882029557</v>
       </c>
       <c r="F5">
-        <v>24.62227106412105</v>
+        <v>27.68455555728748</v>
       </c>
       <c r="G5">
-        <v>34.96344122795256</v>
+        <v>35.0736077772185</v>
       </c>
       <c r="H5">
-        <v>11.25419304207372</v>
+        <v>15.56928761792437</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.29015306277153</v>
+        <v>9.072976542764602</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.55828765712148</v>
+        <v>13.41961326984506</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.553229152396647</v>
+        <v>7.687510382666407</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.807304855074683</v>
+        <v>5.04013266451944</v>
       </c>
       <c r="E6">
-        <v>11.73140155954208</v>
+        <v>12.03444382900811</v>
       </c>
       <c r="F6">
-        <v>24.5783773847469</v>
+        <v>27.67852802584947</v>
       </c>
       <c r="G6">
-        <v>34.89128989461445</v>
+        <v>35.05985555779374</v>
       </c>
       <c r="H6">
-        <v>11.24678772012559</v>
+        <v>15.56995215996632</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.24820061259225</v>
+        <v>9.051397350373733</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.50913968091482</v>
+        <v>13.41050873622424</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.660910053665798</v>
+        <v>7.706473552966937</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.79515620374986</v>
+        <v>5.038852688492468</v>
       </c>
       <c r="E7">
-        <v>11.94085113127411</v>
+        <v>12.07456065328472</v>
       </c>
       <c r="F7">
-        <v>24.88367833046509</v>
+        <v>27.7211082477106</v>
       </c>
       <c r="G7">
-        <v>35.39258967290459</v>
+        <v>35.15633684063823</v>
       </c>
       <c r="H7">
-        <v>11.29893819164001</v>
+        <v>15.56564423701555</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.53697296423418</v>
+        <v>9.19990923008978</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.84729324460605</v>
+        <v>13.47392478300221</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.12420747374843</v>
+        <v>7.793759728250695</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.741450878414529</v>
+        <v>5.033352050707428</v>
       </c>
       <c r="E8">
-        <v>12.85219794223363</v>
+        <v>12.25898025077999</v>
       </c>
       <c r="F8">
-        <v>26.24436874214308</v>
+        <v>27.9271829604257</v>
       </c>
       <c r="G8">
-        <v>37.61317311624938</v>
+        <v>35.60685869550485</v>
       </c>
       <c r="H8">
-        <v>11.54790178886249</v>
+        <v>15.55418788820845</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.75102414947409</v>
+        <v>9.823228764579008</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.2659605277182</v>
+        <v>13.75870377931085</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.982998535538564</v>
+        <v>7.976651945707117</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.634875373621455</v>
+        <v>5.023076411470131</v>
       </c>
       <c r="E9">
-        <v>14.58359998975057</v>
+        <v>12.6444633931564</v>
       </c>
       <c r="F9">
-        <v>28.94365307830848</v>
+        <v>28.3944538236407</v>
       </c>
       <c r="G9">
-        <v>41.96952316409251</v>
+        <v>36.57298883514213</v>
       </c>
       <c r="H9">
-        <v>12.106331225122</v>
+        <v>15.55896756377476</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.91470077402465</v>
+        <v>10.92607534549652</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.78878643734329</v>
+        <v>14.32991751858079</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.624516478914179</v>
+        <v>8.117009746435025</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.554871172788929</v>
+        <v>5.015820722131439</v>
       </c>
       <c r="E10">
-        <v>15.81744699561164</v>
+        <v>12.93962169660994</v>
       </c>
       <c r="F10">
-        <v>30.93447290477299</v>
+        <v>28.77399751765469</v>
       </c>
       <c r="G10">
-        <v>45.15419548568739</v>
+        <v>37.32696098465087</v>
       </c>
       <c r="H10">
-        <v>12.5616451742194</v>
+        <v>15.57914692950957</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.37365443537997</v>
+        <v>11.66066493551621</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.49064200862859</v>
+        <v>14.75294450290721</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.940726585033691</v>
+        <v>8.181907028305101</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.517880682717987</v>
+        <v>5.012580038135287</v>
       </c>
       <c r="E11">
-        <v>16.40954916447618</v>
+        <v>13.07592171397211</v>
       </c>
       <c r="F11">
-        <v>31.84051746655897</v>
+        <v>28.95398280560413</v>
       </c>
       <c r="G11">
-        <v>46.59790719952053</v>
+        <v>37.67813674334544</v>
       </c>
       <c r="H11">
-        <v>12.77907059404492</v>
+        <v>15.59194965757844</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.00974034352527</v>
+        <v>11.97800083859597</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.23363308891949</v>
+        <v>14.9452076405874</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.058164776763494</v>
+        <v>8.206610941997361</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.503767402829832</v>
+        <v>5.011361217352515</v>
       </c>
       <c r="E12">
-        <v>16.64839212703731</v>
+        <v>13.12777903206715</v>
       </c>
       <c r="F12">
-        <v>32.18363940489988</v>
+        <v>29.02314231070861</v>
       </c>
       <c r="G12">
-        <v>47.14387884446069</v>
+        <v>37.81217331062211</v>
       </c>
       <c r="H12">
-        <v>12.86293271834317</v>
+        <v>15.5973181304582</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.24672497483272</v>
+        <v>12.09572143558927</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.51066188604907</v>
+        <v>15.01791454169062</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.032974113030292</v>
+        <v>8.201285136809673</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.506811990775955</v>
+        <v>5.011623344762328</v>
       </c>
       <c r="E13">
-        <v>16.59707840163868</v>
+        <v>13.1166005737204</v>
       </c>
       <c r="F13">
-        <v>32.10974087660755</v>
+        <v>29.00820380015496</v>
       </c>
       <c r="G13">
-        <v>47.02632562439483</v>
+        <v>37.78326124757967</v>
       </c>
       <c r="H13">
-        <v>12.8448027311236</v>
+        <v>15.59613880578654</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.19585749378533</v>
+        <v>12.0704774265197</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.45118841728586</v>
+        <v>15.00226135934925</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.950434212343303</v>
+        <v>8.183936980144026</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.516721815111242</v>
+        <v>5.012479599059076</v>
       </c>
       <c r="E14">
-        <v>16.42925569115694</v>
+        <v>13.08018344487756</v>
       </c>
       <c r="F14">
-        <v>31.86874585299698</v>
+        <v>28.95965279799664</v>
       </c>
       <c r="G14">
-        <v>46.64283894487779</v>
+        <v>37.6891436035237</v>
       </c>
       <c r="H14">
-        <v>12.78593906637887</v>
+        <v>15.59238090162915</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.02931458842314</v>
+        <v>11.98773497123153</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.25651012626319</v>
+        <v>14.9511916784105</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.899577436952772</v>
+        <v>8.173326844889081</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.522777471060468</v>
+        <v>5.013005159905734</v>
       </c>
       <c r="E15">
-        <v>16.32608911544146</v>
+        <v>13.05790716945637</v>
       </c>
       <c r="F15">
-        <v>31.72113234388719</v>
+        <v>28.93004297588534</v>
       </c>
       <c r="G15">
-        <v>46.40784861001164</v>
+        <v>37.63162738596682</v>
       </c>
       <c r="H15">
-        <v>12.75008385705905</v>
+        <v>15.59014681594693</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.92679873352753</v>
+        <v>11.93673337244077</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.13670577497075</v>
+        <v>14.91989498708612</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.603526655001234</v>
+        <v>8.112787765215788</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.557274911910678</v>
+        <v>5.016033692135622</v>
       </c>
       <c r="E16">
-        <v>15.78114474035087</v>
+        <v>12.93075088043138</v>
       </c>
       <c r="F16">
-        <v>30.87526450798482</v>
+        <v>28.76237823351939</v>
       </c>
       <c r="G16">
-        <v>45.05974146542805</v>
+        <v>37.30416507799252</v>
       </c>
       <c r="H16">
-        <v>12.54764700449295</v>
+        <v>15.57838310276156</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.33153591009771</v>
+        <v>11.63958511655185</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.44147133274991</v>
+        <v>14.74036976931827</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.417759491196708</v>
+        <v>8.07590176568058</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.578271484157905</v>
+        <v>5.017906765165058</v>
       </c>
       <c r="E17">
-        <v>15.46207406147435</v>
+        <v>12.85323018245942</v>
       </c>
       <c r="F17">
-        <v>30.3564119268221</v>
+        <v>28.66136298609518</v>
       </c>
       <c r="G17">
-        <v>44.23139798104337</v>
+        <v>37.1052876360984</v>
       </c>
       <c r="H17">
-        <v>12.42612774675495</v>
+        <v>15.57209409360707</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.95934488147184</v>
+        <v>11.45296180292278</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.00708603031391</v>
+        <v>14.63013883036211</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.319944978891904</v>
+        <v>8.054785859549614</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.590293330733511</v>
+        <v>5.01898976694643</v>
       </c>
       <c r="E18">
-        <v>15.2777655756675</v>
+        <v>12.80883640584042</v>
       </c>
       <c r="F18">
-        <v>30.05801874937343</v>
+        <v>28.60395472914573</v>
       </c>
       <c r="G18">
-        <v>43.75447917321625</v>
+        <v>36.99167701107541</v>
       </c>
       <c r="H18">
-        <v>12.35719950165095</v>
+        <v>15.5688179064823</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.74266666602636</v>
+        <v>11.34403784546952</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.75429250760256</v>
+        <v>14.56672480073775</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.289756594713044</v>
+        <v>8.047654210524126</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.594354891425831</v>
+        <v>5.019357433068032</v>
       </c>
       <c r="E19">
-        <v>15.21522587794638</v>
+        <v>12.79384025269112</v>
       </c>
       <c r="F19">
-        <v>29.95699642810238</v>
+        <v>28.58463782365714</v>
       </c>
       <c r="G19">
-        <v>43.59292263450009</v>
+        <v>36.95334784758624</v>
       </c>
       <c r="H19">
-        <v>12.33402626358845</v>
+        <v>15.56776723893254</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.66885375309289</v>
+        <v>11.30688708171726</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.66819034003634</v>
+        <v>14.54525411821037</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.4376936540007</v>
+        <v>8.079818158297064</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.576042177966845</v>
+        <v>5.017706789516736</v>
       </c>
       <c r="E20">
-        <v>15.4961209706005</v>
+        <v>12.86146265944116</v>
       </c>
       <c r="F20">
-        <v>30.41164128879324</v>
+        <v>28.67204486588209</v>
       </c>
       <c r="G20">
-        <v>44.31962638454696</v>
+        <v>37.12637880806864</v>
       </c>
       <c r="H20">
-        <v>12.43896334495799</v>
+        <v>15.57272827139425</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.99923419970653</v>
+        <v>11.47299224024666</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.05363095399702</v>
+        <v>14.64187489972968</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.974740351681003</v>
+        <v>8.18902923579842</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.513814097905084</v>
+        <v>5.012227871734869</v>
       </c>
       <c r="E21">
-        <v>16.478626129978</v>
+        <v>13.0908738169614</v>
       </c>
       <c r="F21">
-        <v>31.9395313065885</v>
+        <v>28.97388660035963</v>
       </c>
       <c r="G21">
-        <v>46.75549767035106</v>
+        <v>37.71676062632937</v>
       </c>
       <c r="H21">
-        <v>12.80318687603524</v>
+        <v>15.59347057418594</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.07833703846313</v>
+        <v>12.01210505056819</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.31380789102441</v>
+        <v>14.96619534337682</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.312325263181945</v>
+        <v>8.261145115345975</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.472517428254317</v>
+        <v>5.008695667452159</v>
       </c>
       <c r="E22">
-        <v>17.1686428354413</v>
+        <v>13.24220405805628</v>
       </c>
       <c r="F22">
-        <v>32.93825464911831</v>
+        <v>29.17697866212173</v>
       </c>
       <c r="G22">
-        <v>48.34329169319799</v>
+        <v>38.10869430044895</v>
       </c>
       <c r="H22">
-        <v>13.05016126621402</v>
+        <v>15.61005928346178</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.76098565448262</v>
+        <v>12.35017123984631</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.11228082142512</v>
+        <v>15.1775483355985</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.133361744346537</v>
+        <v>8.222595039514948</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.494622643283242</v>
+        <v>5.010576512436043</v>
       </c>
       <c r="E23">
-        <v>16.80183596058501</v>
+        <v>13.16132442473805</v>
       </c>
       <c r="F23">
-        <v>32.40519855885119</v>
+        <v>29.06806935965002</v>
       </c>
       <c r="G23">
-        <v>47.49621549057934</v>
+        <v>37.89899630903558</v>
       </c>
       <c r="H23">
-        <v>12.91751140863501</v>
+        <v>15.60092844170985</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.39868021829806</v>
+        <v>12.17105260093652</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.68836184076478</v>
+        <v>15.06482469854759</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.428686364961992</v>
+        <v>8.078047274114395</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.57705019955355</v>
+        <v>5.017797179298073</v>
       </c>
       <c r="E24">
-        <v>15.48073107741176</v>
+        <v>12.8577402112399</v>
       </c>
       <c r="F24">
-        <v>30.38667239567036</v>
+        <v>28.66721350715265</v>
       </c>
       <c r="G24">
-        <v>44.27974048010431</v>
+        <v>37.11684121615573</v>
       </c>
       <c r="H24">
-        <v>12.43315746274014</v>
+        <v>15.57244050211574</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.981208656748</v>
+        <v>11.46394156002824</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.03259753586071</v>
+        <v>14.63656914416285</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.756532922283633</v>
+        <v>7.926037600269058</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.663934318925266</v>
+        <v>5.025803387706343</v>
       </c>
       <c r="E25">
-        <v>14.12177196031026</v>
+        <v>12.53789100268169</v>
       </c>
       <c r="F25">
-        <v>28.21145488781935</v>
+        <v>28.26150369359329</v>
       </c>
       <c r="G25">
-        <v>40.79293319975872</v>
+        <v>36.30340109044072</v>
       </c>
       <c r="H25">
-        <v>11.94751392893658</v>
+        <v>15.55474994303191</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.35251352368111</v>
+        <v>10.64084721315802</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.13344839015079</v>
+        <v>14.17448379281098</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_235/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_235/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.818245253082684</v>
+        <v>7.246581840241828</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.031896916800619</v>
+        <v>3.726846650845268</v>
       </c>
       <c r="E2">
-        <v>12.31065508756321</v>
+        <v>13.09560712721721</v>
       </c>
       <c r="F2">
-        <v>27.98736913050699</v>
+        <v>26.61566906366886</v>
       </c>
       <c r="G2">
-        <v>35.73474102701444</v>
+        <v>38.21580125179296</v>
       </c>
       <c r="H2">
-        <v>15.5529244094609</v>
+        <v>11.62002560639429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.984160097481048</v>
+        <v>16.0652657886582</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.83689475540853</v>
+        <v>16.63260976881142</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.74815202461363</v>
+        <v>6.88803151219237</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.036156397470084</v>
+        <v>3.769130935424437</v>
       </c>
       <c r="E3">
-        <v>12.16266361848166</v>
+        <v>12.38558395937194</v>
       </c>
       <c r="F3">
-        <v>27.81766522492601</v>
+        <v>25.54151053174845</v>
       </c>
       <c r="G3">
-        <v>35.37028824802812</v>
+        <v>36.4687186391018</v>
       </c>
       <c r="H3">
-        <v>15.55865381647555</v>
+        <v>11.41611755371394</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.508441533254315</v>
+        <v>15.13739593445731</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.61121181490203</v>
+        <v>15.54942308787785</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.706697473712548</v>
+        <v>6.662163959639872</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.038837792927202</v>
+        <v>3.795014037974299</v>
       </c>
       <c r="E4">
-        <v>12.07503423584158</v>
+        <v>11.94329548019039</v>
       </c>
       <c r="F4">
-        <v>27.72161652226385</v>
+        <v>24.88725904347982</v>
       </c>
       <c r="G4">
-        <v>35.15747961846768</v>
+        <v>35.39846175060043</v>
       </c>
       <c r="H4">
-        <v>15.56559795591642</v>
+        <v>11.29955858881816</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.201629725911936</v>
+        <v>14.54031910043907</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.47466976403396</v>
+        <v>14.85120963344646</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.690220682354167</v>
+        <v>6.568806495302495</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.039947387510532</v>
+        <v>3.80555464686519</v>
       </c>
       <c r="E5">
-        <v>12.04017882029557</v>
+        <v>11.76164410406323</v>
       </c>
       <c r="F5">
-        <v>27.68455555728748</v>
+        <v>24.62227106412097</v>
       </c>
       <c r="G5">
-        <v>35.0736077772185</v>
+        <v>34.96344122795242</v>
       </c>
       <c r="H5">
-        <v>15.56928761792437</v>
+        <v>11.25419304207361</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.072976542764602</v>
+        <v>14.29015306277157</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.41961326984506</v>
+        <v>14.55828765712148</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.687510382666407</v>
+        <v>6.553229152396618</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.04013266451944</v>
+        <v>3.807304855074687</v>
       </c>
       <c r="E6">
-        <v>12.03444382900811</v>
+        <v>11.73140155954208</v>
       </c>
       <c r="F6">
-        <v>27.67852802584947</v>
+        <v>24.57837738474681</v>
       </c>
       <c r="G6">
-        <v>35.05985555779374</v>
+        <v>34.8912898946143</v>
       </c>
       <c r="H6">
-        <v>15.56995215996632</v>
+        <v>11.24678772012553</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.051397350373733</v>
+        <v>14.24820061259228</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.41050873622424</v>
+        <v>14.50913968091481</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.706473552966937</v>
+        <v>6.660910053665756</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.038852688492468</v>
+        <v>3.795156203749996</v>
       </c>
       <c r="E7">
-        <v>12.07456065328472</v>
+        <v>11.94085113127406</v>
       </c>
       <c r="F7">
-        <v>27.7211082477106</v>
+        <v>24.88367833046521</v>
       </c>
       <c r="G7">
-        <v>35.15633684063823</v>
+        <v>35.39258967290474</v>
       </c>
       <c r="H7">
-        <v>15.56564423701555</v>
+        <v>11.29893819164015</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.19990923008978</v>
+        <v>14.53697296423409</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.47392478300221</v>
+        <v>14.84729324460603</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.793759728250695</v>
+        <v>7.124207473748445</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.033352050707428</v>
+        <v>3.741450878414393</v>
       </c>
       <c r="E8">
-        <v>12.25898025077999</v>
+        <v>12.85219794223359</v>
       </c>
       <c r="F8">
-        <v>27.9271829604257</v>
+        <v>26.24436874214305</v>
       </c>
       <c r="G8">
-        <v>35.60685869550485</v>
+        <v>37.61317311624931</v>
       </c>
       <c r="H8">
-        <v>15.55418788820845</v>
+        <v>11.54790178886248</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.823228764579008</v>
+        <v>15.75102414947408</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.75870377931085</v>
+        <v>16.26596052771823</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.976651945707117</v>
+        <v>7.982998535538523</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.023076411470131</v>
+        <v>3.63487537362152</v>
       </c>
       <c r="E9">
-        <v>12.6444633931564</v>
+        <v>14.58359998975055</v>
       </c>
       <c r="F9">
-        <v>28.3944538236407</v>
+        <v>28.94365307830851</v>
       </c>
       <c r="G9">
-        <v>36.57298883514213</v>
+        <v>41.96952316409256</v>
       </c>
       <c r="H9">
-        <v>15.55896756377476</v>
+        <v>12.10633122512202</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.92607534549652</v>
+        <v>17.91470077402465</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.32991751858079</v>
+        <v>18.7887864373433</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.117009746435025</v>
+        <v>8.62451647891417</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.015820722131439</v>
+        <v>3.554871172789128</v>
       </c>
       <c r="E10">
-        <v>12.93962169660994</v>
+        <v>15.81744699561164</v>
       </c>
       <c r="F10">
-        <v>28.77399751765469</v>
+        <v>30.93447290477303</v>
       </c>
       <c r="G10">
-        <v>37.32696098465087</v>
+        <v>45.15419548568745</v>
       </c>
       <c r="H10">
-        <v>15.57914692950957</v>
+        <v>12.5616451742194</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.66066493551621</v>
+        <v>19.3736544353799</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.75294450290721</v>
+        <v>20.49064200862852</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.181907028305101</v>
+        <v>8.940726585033705</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.012580038135287</v>
+        <v>3.51788068271799</v>
       </c>
       <c r="E11">
-        <v>13.07592171397211</v>
+        <v>16.40954916447622</v>
       </c>
       <c r="F11">
-        <v>28.95398280560413</v>
+        <v>31.84051746655901</v>
       </c>
       <c r="G11">
-        <v>37.67813674334544</v>
+        <v>46.59790719952055</v>
       </c>
       <c r="H11">
-        <v>15.59194965757844</v>
+        <v>12.77907059404495</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.97800083859597</v>
+        <v>20.00974034352528</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.9452076405874</v>
+        <v>21.2336330889195</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.206610941997361</v>
+        <v>9.058164776763508</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.011361217352515</v>
+        <v>3.503767402829892</v>
       </c>
       <c r="E12">
-        <v>13.12777903206715</v>
+        <v>16.6483921270373</v>
       </c>
       <c r="F12">
-        <v>29.02314231070861</v>
+        <v>32.18363940489989</v>
       </c>
       <c r="G12">
-        <v>37.81217331062211</v>
+        <v>47.14387884446079</v>
       </c>
       <c r="H12">
-        <v>15.5973181304582</v>
+        <v>12.86293271834311</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.09572143558927</v>
+        <v>20.24672497483269</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.01791454169062</v>
+        <v>21.51066188604904</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.201285136809673</v>
+        <v>9.032974113030315</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.011623344762328</v>
+        <v>3.506811990776085</v>
       </c>
       <c r="E13">
-        <v>13.1166005737204</v>
+        <v>16.59707840163869</v>
       </c>
       <c r="F13">
-        <v>29.00820380015496</v>
+        <v>32.10974087660752</v>
       </c>
       <c r="G13">
-        <v>37.78326124757967</v>
+        <v>47.02632562439477</v>
       </c>
       <c r="H13">
-        <v>15.59613880578654</v>
+        <v>12.84480273112359</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.0704774265197</v>
+        <v>20.19585749378531</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.00226135934925</v>
+        <v>21.45118841728587</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.183936980144026</v>
+        <v>8.95043421234333</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.012479599059076</v>
+        <v>3.516721815110981</v>
       </c>
       <c r="E14">
-        <v>13.08018344487756</v>
+        <v>16.42925569115695</v>
       </c>
       <c r="F14">
-        <v>28.95965279799664</v>
+        <v>31.86874585299702</v>
       </c>
       <c r="G14">
-        <v>37.6891436035237</v>
+        <v>46.64283894487779</v>
       </c>
       <c r="H14">
-        <v>15.59238090162915</v>
+        <v>12.78593906637886</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.98773497123153</v>
+        <v>20.0293145884232</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.9511916784105</v>
+        <v>21.25651012626322</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.173326844889081</v>
+        <v>8.899577436952768</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.013005159905734</v>
+        <v>3.522777471060272</v>
       </c>
       <c r="E15">
-        <v>13.05790716945637</v>
+        <v>16.32608911544148</v>
       </c>
       <c r="F15">
-        <v>28.93004297588534</v>
+        <v>31.72113234388726</v>
       </c>
       <c r="G15">
-        <v>37.63162738596682</v>
+        <v>46.40784861001168</v>
       </c>
       <c r="H15">
-        <v>15.59014681594693</v>
+        <v>12.75008385705909</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.93673337244077</v>
+        <v>19.92679873352752</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.91989498708612</v>
+        <v>21.13670577497077</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.112787765215788</v>
+        <v>8.603526655001234</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.016033692135622</v>
+        <v>3.557274911910615</v>
       </c>
       <c r="E16">
-        <v>12.93075088043138</v>
+        <v>15.78114474035086</v>
       </c>
       <c r="F16">
-        <v>28.76237823351939</v>
+        <v>30.87526450798488</v>
       </c>
       <c r="G16">
-        <v>37.30416507799252</v>
+        <v>45.05974146542815</v>
       </c>
       <c r="H16">
-        <v>15.57838310276156</v>
+        <v>12.54764700449299</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.63958511655185</v>
+        <v>19.33153591009768</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.74036976931827</v>
+        <v>20.44147133274988</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.07590176568058</v>
+        <v>8.417759491196685</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.017906765165058</v>
+        <v>3.578271484157776</v>
       </c>
       <c r="E17">
-        <v>12.85323018245942</v>
+        <v>15.46207406147435</v>
       </c>
       <c r="F17">
-        <v>28.66136298609518</v>
+        <v>30.35641192682207</v>
       </c>
       <c r="G17">
-        <v>37.1052876360984</v>
+        <v>44.23139798104333</v>
       </c>
       <c r="H17">
-        <v>15.57209409360707</v>
+        <v>12.42612774675494</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.45296180292278</v>
+        <v>18.95934488147184</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.63013883036211</v>
+        <v>20.00708603031393</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.054785859549614</v>
+        <v>8.319944978891904</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.01898976694643</v>
+        <v>3.590293330733579</v>
       </c>
       <c r="E18">
-        <v>12.80883640584042</v>
+        <v>15.27776557566751</v>
       </c>
       <c r="F18">
-        <v>28.60395472914573</v>
+        <v>30.05801874937337</v>
       </c>
       <c r="G18">
-        <v>36.99167701107541</v>
+        <v>43.75447917321617</v>
       </c>
       <c r="H18">
-        <v>15.5688179064823</v>
+        <v>12.35719950165094</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.34403784546952</v>
+        <v>18.74266666602638</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.56672480073775</v>
+        <v>19.75429250760257</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.047654210524126</v>
+        <v>8.289756594713033</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.019357433068032</v>
+        <v>3.594354891425963</v>
       </c>
       <c r="E19">
-        <v>12.79384025269112</v>
+        <v>15.21522587794637</v>
       </c>
       <c r="F19">
-        <v>28.58463782365714</v>
+        <v>29.95699642810235</v>
       </c>
       <c r="G19">
-        <v>36.95334784758624</v>
+        <v>43.59292263450007</v>
       </c>
       <c r="H19">
-        <v>15.56776723893254</v>
+        <v>12.33402626358845</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.30688708171726</v>
+        <v>18.66885375309287</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.54525411821037</v>
+        <v>19.66819034003635</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.079818158297064</v>
+        <v>8.43769365400065</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.017706789516736</v>
+        <v>3.576042177966975</v>
       </c>
       <c r="E20">
-        <v>12.86146265944116</v>
+        <v>15.4961209706005</v>
       </c>
       <c r="F20">
-        <v>28.67204486588209</v>
+        <v>30.41164128879322</v>
       </c>
       <c r="G20">
-        <v>37.12637880806864</v>
+        <v>44.31962638454694</v>
       </c>
       <c r="H20">
-        <v>15.57272827139425</v>
+        <v>12.43896334495798</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.47299224024666</v>
+        <v>18.99923419970658</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.64187489972968</v>
+        <v>20.05363095399707</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.18902923579842</v>
+        <v>8.974740351681053</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.012227871734869</v>
+        <v>3.513814097905019</v>
       </c>
       <c r="E21">
-        <v>13.0908738169614</v>
+        <v>16.47862612997798</v>
       </c>
       <c r="F21">
-        <v>28.97388660035963</v>
+        <v>31.93953130658846</v>
       </c>
       <c r="G21">
-        <v>37.71676062632937</v>
+        <v>46.75549767035102</v>
       </c>
       <c r="H21">
-        <v>15.59347057418594</v>
+        <v>12.80318687603523</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.01210505056819</v>
+        <v>20.07833703846319</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.96619534337682</v>
+        <v>21.31380789102444</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.261145115345975</v>
+        <v>9.312325263181954</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.008695667452159</v>
+        <v>3.472517428254317</v>
       </c>
       <c r="E22">
-        <v>13.24220405805628</v>
+        <v>17.16864283544132</v>
       </c>
       <c r="F22">
-        <v>29.17697866212173</v>
+        <v>32.93825464911833</v>
       </c>
       <c r="G22">
-        <v>38.10869430044895</v>
+        <v>48.34329169319805</v>
       </c>
       <c r="H22">
-        <v>15.61005928346178</v>
+        <v>13.05016126621401</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.35017123984631</v>
+        <v>20.76098565448268</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.1775483355985</v>
+        <v>22.11228082142515</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.222595039514948</v>
+        <v>9.133361744346438</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.010576512436043</v>
+        <v>3.494622643283365</v>
       </c>
       <c r="E23">
-        <v>13.16132442473805</v>
+        <v>16.80183596058497</v>
       </c>
       <c r="F23">
-        <v>29.06806935965002</v>
+        <v>32.40519855885124</v>
       </c>
       <c r="G23">
-        <v>37.89899630903558</v>
+        <v>47.49621549057935</v>
       </c>
       <c r="H23">
-        <v>15.60092844170985</v>
+        <v>12.9175114086351</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.17105260093652</v>
+        <v>20.39868021829796</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.06482469854759</v>
+        <v>21.6883618407647</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.078047274114395</v>
+        <v>8.428686364962003</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.017797179298073</v>
+        <v>3.577050199553615</v>
       </c>
       <c r="E24">
-        <v>12.8577402112399</v>
+        <v>15.48073107741176</v>
       </c>
       <c r="F24">
-        <v>28.66721350715265</v>
+        <v>30.38667239567038</v>
       </c>
       <c r="G24">
-        <v>37.11684121615573</v>
+        <v>44.27974048010433</v>
       </c>
       <c r="H24">
-        <v>15.57244050211574</v>
+        <v>12.43315746274014</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.46394156002824</v>
+        <v>18.98120865674802</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.63656914416285</v>
+        <v>20.03259753586075</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.926037600269058</v>
+        <v>7.756532922283626</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.025803387706343</v>
+        <v>3.663934318925269</v>
       </c>
       <c r="E25">
-        <v>12.53789100268169</v>
+        <v>14.12177196031027</v>
       </c>
       <c r="F25">
-        <v>28.26150369359329</v>
+        <v>28.21145488781935</v>
       </c>
       <c r="G25">
-        <v>36.30340109044072</v>
+        <v>40.79293319975879</v>
       </c>
       <c r="H25">
-        <v>15.55474994303191</v>
+        <v>11.94751392893658</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.64084721315802</v>
+        <v>17.35251352368106</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.17448379281098</v>
+        <v>18.13344839015076</v>
       </c>
       <c r="N25">
         <v>0</v>
